--- a/data_Generic/data_ProjectTemplate/Solarfarms_ProjectTemplate.xlsx
+++ b/data_Generic/data_ProjectTemplate/Solarfarms_ProjectTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Zero_ProjectTemplate\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92803D31-6B40-4E51-B5C5-A43FF87FEA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5258E9FF-18C3-42CC-B886-7F07B5D0FB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,9 +524,6 @@
     <t>capacity_electric_kw</t>
   </si>
   <si>
-    <t>trafo_id</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>initially_active</t>
+  </si>
+  <si>
+    <t>gridnode_id</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -945,37 +945,37 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
